--- a/output/1Y_P107_KFSDIV.xlsx
+++ b/output/1Y_P107_KFSDIV.xlsx
@@ -656,7 +656,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
@@ -727,16 +727,16 @@
         <v>11.6434</v>
       </c>
       <c r="C2" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D2" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.3141</v>
       </c>
       <c r="C3" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D3" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E3" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="F3" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>9717.1788</v>
+        <v>9678.400900000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9717.1788</v>
+        <v>9678.400900000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0283</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.003</v>
       </c>
       <c r="C4" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D4" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E4" s="1">
-        <v>1742.7086</v>
+        <v>1739.2235</v>
       </c>
       <c r="F4" s="1">
-        <v>908.843</v>
+        <v>907.0213</v>
       </c>
       <c r="H4" s="1">
-        <v>19175.0222</v>
+        <v>19098.4136</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19175.0222</v>
+        <v>19098.4136</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.4764</v>
+        <v>11.4994</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0275</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.1102</v>
       </c>
       <c r="C5" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D5" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E5" s="1">
-        <v>2651.5516</v>
+        <v>2646.2448</v>
       </c>
       <c r="F5" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="H5" s="1">
-        <v>29459.2685</v>
+        <v>29341.5622</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29459.2685</v>
+        <v>29341.5622</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0097</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>10.623</v>
       </c>
       <c r="C6" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D6" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E6" s="1">
-        <v>3551.6173</v>
+        <v>3544.5156</v>
       </c>
       <c r="F6" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="H6" s="1">
-        <v>37728.8306</v>
+        <v>37577.8912</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37728.8306</v>
+        <v>37577.8912</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2625</v>
+        <v>11.285</v>
       </c>
       <c r="M6" s="1">
         <v>0.1</v>
       </c>
       <c r="N6" s="1">
-        <v>238.6396</v>
+        <v>238.162</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9761.3604</v>
+        <v>-9761.838</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0439</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>9.977</v>
       </c>
       <c r="C7" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E7" s="1">
-        <v>4492.971</v>
+        <v>4483.9856</v>
       </c>
       <c r="F7" s="1">
-        <v>1005.7223</v>
+        <v>1003.7034</v>
       </c>
       <c r="H7" s="1">
-        <v>44826.3713</v>
+        <v>44647.0443</v>
       </c>
       <c r="I7" s="1">
-        <v>238.6396</v>
+        <v>238.162</v>
       </c>
       <c r="J7" s="1">
-        <v>45065.011</v>
+        <v>44885.2063</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.1285</v>
+        <v>11.1508</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10034.0914</v>
+        <v>-10034.0231</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0558</v>
+        <v>-0.0566</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.5542</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E8" s="1">
-        <v>5498.6933</v>
+        <v>5487.689</v>
       </c>
       <c r="F8" s="1">
-        <v>950.7202</v>
+        <v>948.8079</v>
       </c>
       <c r="H8" s="1">
-        <v>58034.3085</v>
+        <v>57802.3769</v>
       </c>
       <c r="I8" s="1">
-        <v>204.5483</v>
+        <v>204.1389</v>
       </c>
       <c r="J8" s="1">
-        <v>58238.8567</v>
+        <v>58006.5158</v>
       </c>
       <c r="K8" s="1">
-        <v>60034.0914</v>
+        <v>60034.0231</v>
       </c>
       <c r="L8" s="1">
-        <v>10.9179</v>
+        <v>10.9398</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10034.0914</v>
+        <v>-10034.0231</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0576</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.7815</v>
       </c>
       <c r="C9" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D9" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E9" s="1">
-        <v>6449.4135</v>
+        <v>6436.4969</v>
       </c>
       <c r="F9" s="1">
-        <v>930.6767</v>
+        <v>928.8096</v>
       </c>
       <c r="H9" s="1">
-        <v>69534.3515</v>
+        <v>69256.06299999999</v>
       </c>
       <c r="I9" s="1">
-        <v>170.4569</v>
+        <v>170.1157</v>
       </c>
       <c r="J9" s="1">
-        <v>69704.80839999999</v>
+        <v>69426.1787</v>
       </c>
       <c r="K9" s="1">
-        <v>70068.1828</v>
+        <v>70068.0463</v>
       </c>
       <c r="L9" s="1">
-        <v>10.8643</v>
+        <v>10.8861</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10034.0914</v>
+        <v>-10034.0231</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0215</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.9292</v>
       </c>
       <c r="C10" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D10" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E10" s="1">
-        <v>7380.0902</v>
+        <v>7365.3065</v>
       </c>
       <c r="F10" s="1">
-        <v>918.0993</v>
+        <v>916.2571</v>
       </c>
       <c r="H10" s="1">
-        <v>80658.4822</v>
+        <v>80335.6078</v>
       </c>
       <c r="I10" s="1">
-        <v>136.3655</v>
+        <v>136.0926</v>
       </c>
       <c r="J10" s="1">
-        <v>80794.8477</v>
+        <v>80471.7003</v>
       </c>
       <c r="K10" s="1">
-        <v>80102.2741</v>
+        <v>80102.06939999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8538</v>
+        <v>10.8756</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10034.0914</v>
+        <v>-10034.0231</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0137</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.337</v>
       </c>
       <c r="C11" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D11" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E11" s="1">
-        <v>8298.1896</v>
+        <v>8281.563599999999</v>
       </c>
       <c r="F11" s="1">
-        <v>970.6967</v>
+        <v>968.7501</v>
       </c>
       <c r="H11" s="1">
-        <v>85778.3857</v>
+        <v>85435.0947</v>
       </c>
       <c r="I11" s="1">
-        <v>102.2741</v>
+        <v>102.0694</v>
       </c>
       <c r="J11" s="1">
-        <v>85880.6599</v>
+        <v>85537.1642</v>
       </c>
       <c r="K11" s="1">
-        <v>90136.3655</v>
+        <v>90136.0926</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8622</v>
+        <v>10.8839</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10034.0914</v>
+        <v>-10034.0231</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0541</v>
+        <v>-0.0545</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>9.6417</v>
       </c>
       <c r="C12" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E12" s="1">
-        <v>9268.886200000001</v>
+        <v>9250.313700000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1040.6973</v>
+        <v>1038.6112</v>
       </c>
       <c r="H12" s="1">
-        <v>89367.8205</v>
+        <v>89010.21890000001</v>
       </c>
       <c r="I12" s="1">
-        <v>68.1828</v>
+        <v>68.0463</v>
       </c>
       <c r="J12" s="1">
-        <v>89436.0033</v>
+        <v>89078.26519999999</v>
       </c>
       <c r="K12" s="1">
-        <v>100170.4569</v>
+        <v>100170.1157</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8072</v>
+        <v>10.8288</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3734.1853</v>
+        <v>3726.7036</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6299.9061</v>
+        <v>-6307.3195</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0672</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>9.1572</v>
       </c>
       <c r="C13" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D13" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>10309.5836</v>
+        <v>10288.925</v>
       </c>
       <c r="F13" s="1">
-        <v>1503.5466</v>
+        <v>1499.7087</v>
       </c>
       <c r="H13" s="1">
-        <v>94406.9186</v>
+        <v>94029.4565</v>
       </c>
       <c r="I13" s="1">
-        <v>3768.2767</v>
+        <v>3760.7268</v>
       </c>
       <c r="J13" s="1">
-        <v>98175.19530000001</v>
+        <v>97790.1832</v>
       </c>
       <c r="K13" s="1">
-        <v>110204.5483</v>
+        <v>110204.1389</v>
       </c>
       <c r="L13" s="1">
-        <v>10.6895</v>
+        <v>10.7109</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13768.2767</v>
+        <v>-13760.7268</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0127</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>9.597</v>
       </c>
       <c r="C14" s="1">
-        <v>9.597</v>
+        <v>9.5778</v>
       </c>
       <c r="D14" s="1">
-        <v>9.597</v>
+        <v>9.616199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>11813.1301</v>
+        <v>11788.6336</v>
       </c>
       <c r="F14" s="1">
-        <v>-11813.1301</v>
+        <v>-11788.6336</v>
       </c>
       <c r="H14" s="1">
-        <v>113370.61</v>
+        <v>112909.1752</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>113370.61</v>
+        <v>112909.1752</v>
       </c>
       <c r="K14" s="1">
-        <v>123972.825</v>
+        <v>123964.8657</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4945</v>
+        <v>10.5156</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>113370.61</v>
+        <v>112909.1752</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.048</v>
+        <v>0.0475</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1385,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>11.6434</v>
       </c>
       <c r="C2" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D2" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.3141</v>
       </c>
       <c r="C3" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D3" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E3" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="F3" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9717.1788</v>
+        <v>9678.400900000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9717.1788</v>
+        <v>9678.400900000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0283</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.003</v>
       </c>
       <c r="C4" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D4" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E4" s="1">
-        <v>1742.7086</v>
+        <v>1739.2235</v>
       </c>
       <c r="F4" s="1">
-        <v>908.843</v>
+        <v>907.0213</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19175.0222</v>
+        <v>19098.4136</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19175.0222</v>
+        <v>19098.4136</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.4764</v>
+        <v>11.4994</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0275</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.1102</v>
       </c>
       <c r="C5" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D5" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E5" s="1">
-        <v>2651.5516</v>
+        <v>2646.2448</v>
       </c>
       <c r="F5" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29459.2685</v>
+        <v>29341.5622</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29459.2685</v>
+        <v>29341.5622</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0097</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>10.623</v>
       </c>
       <c r="C6" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D6" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E6" s="1">
-        <v>3551.6173</v>
+        <v>3544.5156</v>
       </c>
       <c r="F6" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>37728.8306</v>
+        <v>37577.8912</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37728.8306</v>
+        <v>37577.8912</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2625</v>
+        <v>11.285</v>
       </c>
       <c r="M6" s="1">
         <v>0.1</v>
       </c>
       <c r="N6" s="1">
-        <v>238.6396</v>
+        <v>238.162</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9761.3604</v>
+        <v>-9761.838</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0439</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>9.977</v>
       </c>
       <c r="C7" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E7" s="1">
-        <v>4492.971</v>
+        <v>4483.9856</v>
       </c>
       <c r="F7" s="1">
-        <v>1026.2243</v>
+        <v>1024.1234</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>44826.3713</v>
+        <v>44647.0443</v>
       </c>
       <c r="I7" s="1">
-        <v>238.6396</v>
+        <v>238.162</v>
       </c>
       <c r="J7" s="1">
-        <v>45065.011</v>
+        <v>44885.2063</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.1285</v>
+        <v>11.1508</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10238.6396</v>
+        <v>-10238.162</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0558</v>
+        <v>-0.0566</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.5542</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E8" s="1">
-        <v>5519.1952</v>
+        <v>5508.109</v>
       </c>
       <c r="F8" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58250.6905</v>
+        <v>58017.463</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58250.6905</v>
+        <v>58017.463</v>
       </c>
       <c r="K8" s="1">
-        <v>60238.6396</v>
+        <v>60238.162</v>
       </c>
       <c r="L8" s="1">
-        <v>10.9144</v>
+        <v>10.9363</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0579</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.7815</v>
       </c>
       <c r="C9" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D9" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E9" s="1">
-        <v>6466.6853</v>
+        <v>6453.6997</v>
       </c>
       <c r="F9" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69720.5681</v>
+        <v>69441.1636</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>69720.5681</v>
+        <v>69441.1636</v>
       </c>
       <c r="K9" s="1">
-        <v>70238.63959999999</v>
+        <v>70238.162</v>
       </c>
       <c r="L9" s="1">
-        <v>10.8616</v>
+        <v>10.8834</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0215</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.9292</v>
       </c>
       <c r="C10" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D10" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E10" s="1">
-        <v>7394.2001</v>
+        <v>7379.3599</v>
       </c>
       <c r="F10" s="1">
-        <v>840.6204</v>
+        <v>871.9947</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80812.6914</v>
+        <v>80488.8927</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80812.6914</v>
+        <v>80488.8927</v>
       </c>
       <c r="K10" s="1">
-        <v>80238.63959999999</v>
+        <v>80238.162</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8516</v>
+        <v>10.8733</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9187.3086</v>
+        <v>-9549.3006</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0137</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.337</v>
       </c>
       <c r="C11" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D11" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E11" s="1">
-        <v>8234.8205</v>
+        <v>8251.354600000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1046.0183</v>
+        <v>1008.9788</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>85123.33930000001</v>
+        <v>85123.4494</v>
       </c>
       <c r="I11" s="1">
-        <v>812.6914</v>
+        <v>450.6994</v>
       </c>
       <c r="J11" s="1">
-        <v>85936.0307</v>
+        <v>85574.1488</v>
       </c>
       <c r="K11" s="1">
-        <v>89425.9482</v>
+        <v>89787.4627</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8595</v>
+        <v>10.8815</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10812.6914</v>
+        <v>-10450.6994</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0537</v>
+        <v>-0.0543</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>9.6417</v>
       </c>
       <c r="C12" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E12" s="1">
-        <v>9280.8388</v>
+        <v>9260.3334</v>
       </c>
       <c r="F12" s="1">
-        <v>1037.1615</v>
+        <v>1035.0895</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>89483.0635</v>
+        <v>89106.6318</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89483.0635</v>
+        <v>89106.6318</v>
       </c>
       <c r="K12" s="1">
-        <v>100238.6396</v>
+        <v>100238.162</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8006</v>
+        <v>10.8245</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3705.6692</v>
+        <v>3713.1096</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6294.3308</v>
+        <v>-6286.8904</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0673</v>
+        <v>-0.0677</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>9.1572</v>
       </c>
       <c r="C13" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D13" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>10318.0003</v>
+        <v>10295.4229</v>
       </c>
       <c r="F13" s="1">
-        <v>1496.7096</v>
+        <v>1494.5191</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>94483.9923</v>
+        <v>94088.8403</v>
       </c>
       <c r="I13" s="1">
-        <v>3705.6692</v>
+        <v>3713.1096</v>
       </c>
       <c r="J13" s="1">
-        <v>98189.66160000001</v>
+        <v>97801.94990000001</v>
       </c>
       <c r="K13" s="1">
-        <v>110238.6396</v>
+        <v>110238.162</v>
       </c>
       <c r="L13" s="1">
-        <v>10.6841</v>
+        <v>10.7075</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13705.6692</v>
+        <v>-13713.1096</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.013</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>9.597</v>
       </c>
       <c r="C14" s="1">
-        <v>9.597</v>
+        <v>9.5778</v>
       </c>
       <c r="D14" s="1">
-        <v>9.597</v>
+        <v>9.616199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>11814.7099</v>
+        <v>11789.942</v>
       </c>
       <c r="F14" s="1">
-        <v>-11814.7099</v>
+        <v>-11789.942</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>113385.771</v>
+        <v>112921.7066</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>113385.771</v>
+        <v>112921.7066</v>
       </c>
       <c r="K14" s="1">
-        <v>123944.3089</v>
+        <v>123951.2716</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4907</v>
+        <v>10.5133</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>113385.771</v>
+        <v>112921.7066</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.048</v>
+        <v>0.0475</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>11.6434</v>
       </c>
       <c r="C2" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D2" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>11.3141</v>
       </c>
       <c r="C3" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D3" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E3" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="F3" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9717.1788</v>
+        <v>9678.400900000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9717.1788</v>
+        <v>9678.400900000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0283</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.003</v>
       </c>
       <c r="C4" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D4" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E4" s="1">
-        <v>1742.7086</v>
+        <v>1739.2235</v>
       </c>
       <c r="F4" s="1">
-        <v>908.843</v>
+        <v>907.0213</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19175.0222</v>
+        <v>19098.4136</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19175.0222</v>
+        <v>19098.4136</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.4764</v>
+        <v>11.4994</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0275</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>11.1102</v>
       </c>
       <c r="C5" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D5" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E5" s="1">
-        <v>2651.5516</v>
+        <v>2646.2448</v>
       </c>
       <c r="F5" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29459.2685</v>
+        <v>29341.5622</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29459.2685</v>
+        <v>29341.5622</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0097</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>10.623</v>
       </c>
       <c r="C6" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D6" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E6" s="1">
-        <v>3551.6173</v>
+        <v>3544.5156</v>
       </c>
       <c r="F6" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>37728.8306</v>
+        <v>37577.8912</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37728.8306</v>
+        <v>37577.8912</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2625</v>
+        <v>11.285</v>
       </c>
       <c r="M6" s="1">
         <v>0.1</v>
       </c>
       <c r="N6" s="1">
-        <v>238.6396</v>
+        <v>238.162</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9761.3604</v>
+        <v>-9761.838</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0439</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>9.977</v>
       </c>
       <c r="C7" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E7" s="1">
-        <v>4492.971</v>
+        <v>4483.9856</v>
       </c>
       <c r="F7" s="1">
-        <v>1026.2243</v>
+        <v>1024.1234</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>44826.3713</v>
+        <v>44647.0443</v>
       </c>
       <c r="I7" s="1">
-        <v>238.6396</v>
+        <v>238.162</v>
       </c>
       <c r="J7" s="1">
-        <v>45065.011</v>
+        <v>44885.2063</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.1285</v>
+        <v>11.1508</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10238.6396</v>
+        <v>-10238.162</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0558</v>
+        <v>-0.0566</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.5542</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E8" s="1">
-        <v>5519.1952</v>
+        <v>5508.109</v>
       </c>
       <c r="F8" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>58250.6905</v>
+        <v>58017.463</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58250.6905</v>
+        <v>58017.463</v>
       </c>
       <c r="K8" s="1">
-        <v>60238.6396</v>
+        <v>60238.162</v>
       </c>
       <c r="L8" s="1">
-        <v>10.9144</v>
+        <v>10.9363</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0579</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.7815</v>
       </c>
       <c r="C9" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D9" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E9" s="1">
-        <v>6466.6853</v>
+        <v>6453.6997</v>
       </c>
       <c r="F9" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69720.5681</v>
+        <v>69441.1636</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>69720.5681</v>
+        <v>69441.1636</v>
       </c>
       <c r="K9" s="1">
-        <v>70238.63959999999</v>
+        <v>70238.162</v>
       </c>
       <c r="L9" s="1">
-        <v>10.8616</v>
+        <v>10.8834</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0215</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.9292</v>
       </c>
       <c r="C10" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D10" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E10" s="1">
-        <v>7394.2001</v>
+        <v>7379.3599</v>
       </c>
       <c r="F10" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>80812.6914</v>
+        <v>80488.8927</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80812.6914</v>
+        <v>80488.8927</v>
       </c>
       <c r="K10" s="1">
-        <v>80238.63959999999</v>
+        <v>80238.162</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8516</v>
+        <v>10.8733</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0137</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.337</v>
       </c>
       <c r="C11" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D11" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E11" s="1">
-        <v>8309.1801</v>
+        <v>8292.510200000001</v>
       </c>
       <c r="F11" s="1">
-        <v>967.3987</v>
+        <v>965.4653</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>85891.99490000001</v>
+        <v>85548.0232</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>85891.99490000001</v>
+        <v>85548.0232</v>
       </c>
       <c r="K11" s="1">
-        <v>90238.63959999999</v>
+        <v>90238.162</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8601</v>
+        <v>10.8819</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0542</v>
+        <v>-0.0546</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>9.6417</v>
       </c>
       <c r="C12" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E12" s="1">
-        <v>9276.578799999999</v>
+        <v>9257.9755</v>
       </c>
       <c r="F12" s="1">
-        <v>1037.1615</v>
+        <v>1035.0895</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>89441.98970000001</v>
+        <v>89083.9437</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89441.98970000001</v>
+        <v>89083.9437</v>
       </c>
       <c r="K12" s="1">
-        <v>100238.6396</v>
+        <v>100238.162</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8056</v>
+        <v>10.8272</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3739.1311</v>
+        <v>3731.6296</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6260.8689</v>
+        <v>-6268.3704</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0673</v>
+        <v>-0.0677</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>9.1572</v>
       </c>
       <c r="C13" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D13" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>10313.7403</v>
+        <v>10293.0651</v>
       </c>
       <c r="F13" s="1">
-        <v>1500.3638</v>
+        <v>1496.5375</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>94444.9825</v>
+        <v>94067.2923</v>
       </c>
       <c r="I13" s="1">
-        <v>3739.1311</v>
+        <v>3731.6296</v>
       </c>
       <c r="J13" s="1">
-        <v>98184.1136</v>
+        <v>97798.9219</v>
       </c>
       <c r="K13" s="1">
-        <v>110238.6396</v>
+        <v>110238.162</v>
       </c>
       <c r="L13" s="1">
-        <v>10.6885</v>
+        <v>10.7099</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13739.1311</v>
+        <v>-13731.6296</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0126</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>9.597</v>
       </c>
       <c r="C14" s="1">
-        <v>9.597</v>
+        <v>9.5778</v>
       </c>
       <c r="D14" s="1">
-        <v>9.597</v>
+        <v>9.616199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>11814.104</v>
+        <v>11789.6026</v>
       </c>
       <c r="F14" s="1">
-        <v>-11814.104</v>
+        <v>-11789.6026</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>113379.9565</v>
+        <v>112918.4555</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>113379.9565</v>
+        <v>112918.4555</v>
       </c>
       <c r="K14" s="1">
-        <v>123977.7707</v>
+        <v>123969.7916</v>
       </c>
       <c r="L14" s="1">
-        <v>10.494</v>
+        <v>10.5152</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>113379.9565</v>
+        <v>112918.4555</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.048</v>
+        <v>0.0475</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>11.6434</v>
       </c>
       <c r="C2" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D2" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>11.3141</v>
       </c>
       <c r="C3" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D3" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E3" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="F3" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9717.1788</v>
+        <v>9678.400900000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9717.1788</v>
+        <v>9678.400900000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0283</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.003</v>
       </c>
       <c r="C4" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D4" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E4" s="1">
-        <v>1742.7086</v>
+        <v>1739.2235</v>
       </c>
       <c r="F4" s="1">
-        <v>908.843</v>
+        <v>907.0213</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19175.0222</v>
+        <v>19098.4136</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19175.0222</v>
+        <v>19098.4136</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.4764</v>
+        <v>11.4994</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0275</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>11.1102</v>
       </c>
       <c r="C5" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D5" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E5" s="1">
-        <v>2651.5516</v>
+        <v>2646.2448</v>
       </c>
       <c r="F5" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29459.2685</v>
+        <v>29341.5622</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29459.2685</v>
+        <v>29341.5622</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0097</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>10.623</v>
       </c>
       <c r="C6" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D6" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E6" s="1">
-        <v>3551.6173</v>
+        <v>3544.5156</v>
       </c>
       <c r="F6" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>37728.8306</v>
+        <v>37577.8912</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37728.8306</v>
+        <v>37577.8912</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2625</v>
+        <v>11.285</v>
       </c>
       <c r="M6" s="1">
         <v>0.1</v>
       </c>
       <c r="N6" s="1">
-        <v>238.6396</v>
+        <v>238.162</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9761.3604</v>
+        <v>-9761.838</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0439</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>9.977</v>
       </c>
       <c r="C7" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E7" s="1">
-        <v>4492.971</v>
+        <v>4483.9856</v>
       </c>
       <c r="F7" s="1">
-        <v>1026.2243</v>
+        <v>1024.1234</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>44826.3713</v>
+        <v>44647.0443</v>
       </c>
       <c r="I7" s="1">
-        <v>238.6396</v>
+        <v>238.162</v>
       </c>
       <c r="J7" s="1">
-        <v>45065.011</v>
+        <v>44885.2063</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.1285</v>
+        <v>11.1508</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10238.6396</v>
+        <v>-10238.162</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0558</v>
+        <v>-0.0566</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.5542</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E8" s="1">
-        <v>5519.1952</v>
+        <v>5508.109</v>
       </c>
       <c r="F8" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>58250.6905</v>
+        <v>58017.463</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58250.6905</v>
+        <v>58017.463</v>
       </c>
       <c r="K8" s="1">
-        <v>60238.6396</v>
+        <v>60238.162</v>
       </c>
       <c r="L8" s="1">
-        <v>10.9144</v>
+        <v>10.9363</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0579</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.7815</v>
       </c>
       <c r="C9" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D9" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E9" s="1">
-        <v>6466.6853</v>
+        <v>6453.6997</v>
       </c>
       <c r="F9" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>69720.5681</v>
+        <v>69441.1636</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>69720.5681</v>
+        <v>69441.1636</v>
       </c>
       <c r="K9" s="1">
-        <v>70238.63959999999</v>
+        <v>70238.162</v>
       </c>
       <c r="L9" s="1">
-        <v>10.8616</v>
+        <v>10.8834</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0215</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.9292</v>
       </c>
       <c r="C10" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D10" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E10" s="1">
-        <v>7394.2001</v>
+        <v>7379.3599</v>
       </c>
       <c r="F10" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80812.6914</v>
+        <v>80488.8927</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80812.6914</v>
+        <v>80488.8927</v>
       </c>
       <c r="K10" s="1">
-        <v>80238.63959999999</v>
+        <v>80238.162</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8516</v>
+        <v>10.8733</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0137</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.337</v>
       </c>
       <c r="C11" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D11" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E11" s="1">
-        <v>8309.1801</v>
+        <v>8292.510200000001</v>
       </c>
       <c r="F11" s="1">
-        <v>967.3987</v>
+        <v>965.4653</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>85891.99490000001</v>
+        <v>85548.0232</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>85891.99490000001</v>
+        <v>85548.0232</v>
       </c>
       <c r="K11" s="1">
-        <v>90238.63959999999</v>
+        <v>90238.162</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8601</v>
+        <v>10.8819</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0542</v>
+        <v>-0.0546</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>9.6417</v>
       </c>
       <c r="C12" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E12" s="1">
-        <v>9276.578799999999</v>
+        <v>9257.9755</v>
       </c>
       <c r="F12" s="1">
-        <v>1037.1615</v>
+        <v>1035.0895</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>89441.98970000001</v>
+        <v>89083.9437</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89441.98970000001</v>
+        <v>89083.9437</v>
       </c>
       <c r="K12" s="1">
-        <v>100238.6396</v>
+        <v>100238.162</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8056</v>
+        <v>10.8272</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3739.1311</v>
+        <v>3731.6296</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6260.8689</v>
+        <v>-6268.3704</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0673</v>
+        <v>-0.0677</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>9.1572</v>
       </c>
       <c r="C13" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D13" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>10313.7403</v>
+        <v>10293.0651</v>
       </c>
       <c r="F13" s="1">
-        <v>1500.3638</v>
+        <v>1496.5375</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>94444.9825</v>
+        <v>94067.2923</v>
       </c>
       <c r="I13" s="1">
-        <v>3739.1311</v>
+        <v>3731.6296</v>
       </c>
       <c r="J13" s="1">
-        <v>98184.1136</v>
+        <v>97798.9219</v>
       </c>
       <c r="K13" s="1">
-        <v>110238.6396</v>
+        <v>110238.162</v>
       </c>
       <c r="L13" s="1">
-        <v>10.6885</v>
+        <v>10.7099</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13739.1311</v>
+        <v>-13731.6296</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0126</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>9.597</v>
       </c>
       <c r="C14" s="1">
-        <v>9.597</v>
+        <v>9.5778</v>
       </c>
       <c r="D14" s="1">
-        <v>9.597</v>
+        <v>9.616199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>11814.104</v>
+        <v>11789.6026</v>
       </c>
       <c r="F14" s="1">
-        <v>-11814.104</v>
+        <v>-11789.6026</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>113379.9565</v>
+        <v>112918.4555</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>113379.9565</v>
+        <v>112918.4555</v>
       </c>
       <c r="K14" s="1">
-        <v>123977.7707</v>
+        <v>123969.7916</v>
       </c>
       <c r="L14" s="1">
-        <v>10.494</v>
+        <v>10.5152</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>113379.9565</v>
+        <v>112918.4555</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.048</v>
+        <v>0.0475</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>11.6434</v>
       </c>
       <c r="C2" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D2" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.3141</v>
       </c>
       <c r="C3" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D3" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E3" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="F3" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9717.1788</v>
+        <v>9678.400900000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9717.1788</v>
+        <v>9678.400900000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0283</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.003</v>
       </c>
       <c r="C4" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D4" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E4" s="1">
-        <v>1742.7086</v>
+        <v>1739.2235</v>
       </c>
       <c r="F4" s="1">
-        <v>908.843</v>
+        <v>907.0213</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19175.0222</v>
+        <v>19098.4136</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19175.0222</v>
+        <v>19098.4136</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.4764</v>
+        <v>11.4994</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0275</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.1102</v>
       </c>
       <c r="C5" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D5" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E5" s="1">
-        <v>2651.5516</v>
+        <v>2646.2448</v>
       </c>
       <c r="F5" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29459.2685</v>
+        <v>29341.5622</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29459.2685</v>
+        <v>29341.5622</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0097</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>10.623</v>
       </c>
       <c r="C6" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D6" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E6" s="1">
-        <v>3551.6173</v>
+        <v>3544.5156</v>
       </c>
       <c r="F6" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>37728.8306</v>
+        <v>37577.8912</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37728.8306</v>
+        <v>37577.8912</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2625</v>
+        <v>11.285</v>
       </c>
       <c r="M6" s="1">
         <v>0.1</v>
       </c>
       <c r="N6" s="1">
-        <v>238.6396</v>
+        <v>238.162</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9761.3604</v>
+        <v>-9761.838</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0439</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>9.977</v>
       </c>
       <c r="C7" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E7" s="1">
-        <v>4492.971</v>
+        <v>4483.9856</v>
       </c>
       <c r="F7" s="1">
-        <v>1026.2243</v>
+        <v>1024.1234</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>44826.3713</v>
+        <v>44647.0443</v>
       </c>
       <c r="I7" s="1">
-        <v>238.6396</v>
+        <v>238.162</v>
       </c>
       <c r="J7" s="1">
-        <v>45065.011</v>
+        <v>44885.2063</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.1285</v>
+        <v>11.1508</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10238.6396</v>
+        <v>-10238.162</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0558</v>
+        <v>-0.0566</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.5542</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E8" s="1">
-        <v>5519.1952</v>
+        <v>5508.109</v>
       </c>
       <c r="F8" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>58250.6905</v>
+        <v>58017.463</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58250.6905</v>
+        <v>58017.463</v>
       </c>
       <c r="K8" s="1">
-        <v>60238.6396</v>
+        <v>60238.162</v>
       </c>
       <c r="L8" s="1">
-        <v>10.9144</v>
+        <v>10.9363</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0579</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.7815</v>
       </c>
       <c r="C9" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D9" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E9" s="1">
-        <v>6466.6853</v>
+        <v>6453.6997</v>
       </c>
       <c r="F9" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>69720.5681</v>
+        <v>69441.1636</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>69720.5681</v>
+        <v>69441.1636</v>
       </c>
       <c r="K9" s="1">
-        <v>70238.63959999999</v>
+        <v>70238.162</v>
       </c>
       <c r="L9" s="1">
-        <v>10.8616</v>
+        <v>10.8834</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0215</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.9292</v>
       </c>
       <c r="C10" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D10" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E10" s="1">
-        <v>7394.2001</v>
+        <v>7379.3599</v>
       </c>
       <c r="F10" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>80812.6914</v>
+        <v>80488.8927</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80812.6914</v>
+        <v>80488.8927</v>
       </c>
       <c r="K10" s="1">
-        <v>80238.63959999999</v>
+        <v>80238.162</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8516</v>
+        <v>10.8733</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0137</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.337</v>
       </c>
       <c r="C11" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D11" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E11" s="1">
-        <v>8309.1801</v>
+        <v>8292.510200000001</v>
       </c>
       <c r="F11" s="1">
-        <v>967.3987</v>
+        <v>965.4653</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>85891.99490000001</v>
+        <v>85548.0232</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>85891.99490000001</v>
+        <v>85548.0232</v>
       </c>
       <c r="K11" s="1">
-        <v>90238.63959999999</v>
+        <v>90238.162</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8601</v>
+        <v>10.8819</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0542</v>
+        <v>-0.0546</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>9.6417</v>
       </c>
       <c r="C12" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E12" s="1">
-        <v>9276.578799999999</v>
+        <v>9257.9755</v>
       </c>
       <c r="F12" s="1">
-        <v>1037.1615</v>
+        <v>1035.0895</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>89441.98970000001</v>
+        <v>89083.9437</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89441.98970000001</v>
+        <v>89083.9437</v>
       </c>
       <c r="K12" s="1">
-        <v>100238.6396</v>
+        <v>100238.162</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8056</v>
+        <v>10.8272</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3739.1311</v>
+        <v>3731.6296</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6260.8689</v>
+        <v>-6268.3704</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0673</v>
+        <v>-0.0677</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>9.1572</v>
       </c>
       <c r="C13" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D13" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>10313.7403</v>
+        <v>10293.0651</v>
       </c>
       <c r="F13" s="1">
-        <v>1500.3638</v>
+        <v>1496.5375</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>94444.9825</v>
+        <v>94067.2923</v>
       </c>
       <c r="I13" s="1">
-        <v>3739.1311</v>
+        <v>3731.6296</v>
       </c>
       <c r="J13" s="1">
-        <v>98184.1136</v>
+        <v>97798.9219</v>
       </c>
       <c r="K13" s="1">
-        <v>110238.6396</v>
+        <v>110238.162</v>
       </c>
       <c r="L13" s="1">
-        <v>10.6885</v>
+        <v>10.7099</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13739.1311</v>
+        <v>-13731.6296</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0126</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>9.597</v>
       </c>
       <c r="C14" s="1">
-        <v>9.597</v>
+        <v>9.5778</v>
       </c>
       <c r="D14" s="1">
-        <v>9.597</v>
+        <v>9.616199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>11814.104</v>
+        <v>11789.6026</v>
       </c>
       <c r="F14" s="1">
-        <v>-11814.104</v>
+        <v>-11789.6026</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>113379.9565</v>
+        <v>112918.4555</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>113379.9565</v>
+        <v>112918.4555</v>
       </c>
       <c r="K14" s="1">
-        <v>123977.7707</v>
+        <v>123969.7916</v>
       </c>
       <c r="L14" s="1">
-        <v>10.494</v>
+        <v>10.5152</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>113379.9565</v>
+        <v>112918.4555</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.048</v>
+        <v>0.0475</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4945</v>
+        <v>10.5156</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4907</v>
+        <v>10.5133</v>
       </c>
       <c r="E3" s="1">
-        <v>10.494</v>
+        <v>10.5152</v>
       </c>
       <c r="F3" s="1">
-        <v>10.494</v>
+        <v>10.5152</v>
       </c>
       <c r="G3" s="1">
-        <v>10.494</v>
+        <v>10.5152</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1813</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1389</v>
+        <v>-0.1515</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1385</v>
+        <v>-0.1512</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1387</v>
+        <v>-0.1512</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1387</v>
+        <v>-0.1512</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1387</v>
+        <v>-0.1512</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1443</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1377</v>
+        <v>0.1382</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1377</v>
+        <v>0.1382</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1379</v>
+        <v>0.1383</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1379</v>
+        <v>0.1383</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1379</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.3971</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.1561</v>
+        <v>-1.2434</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.1535</v>
+        <v>-1.2406</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.1532</v>
+        <v>-1.2405</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.1532</v>
+        <v>-1.2405</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.1532</v>
+        <v>-1.2405</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.101</v>
+        <v>-0.1079</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1008</v>
+        <v>-0.1077</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1007</v>
+        <v>-0.1076</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1007</v>
+        <v>-0.1076</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1007</v>
+        <v>-0.1076</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3972.825</v>
+        <v>3964.8657</v>
       </c>
       <c r="D8" s="1">
-        <v>3944.3089</v>
+        <v>3951.2716</v>
       </c>
       <c r="E8" s="1">
-        <v>3977.7707</v>
+        <v>3969.7916</v>
       </c>
       <c r="F8" s="1">
-        <v>3977.7707</v>
+        <v>3969.7916</v>
       </c>
       <c r="G8" s="1">
-        <v>3977.7707</v>
+        <v>3969.7916</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P107_KFSDIV.xlsx
+++ b/output/1Y_P107_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.6434</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.3141</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.003</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.1102</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.623</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.977</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5542</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.7815</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.9292</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.337</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.6417</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.1572</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.597</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.6434</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.3141</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.003</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.1102</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.623</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.977</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5542</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.7815</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.9292</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.337</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.6417</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.1572</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.597</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.6434</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.3141</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.003</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.1102</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.623</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.977</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5542</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.7815</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.9292</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.337</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.6417</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.1572</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.597</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.6434</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.3141</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.003</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.1102</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.623</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.977</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5542</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.7815</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.9292</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.337</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.6417</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.1572</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.597</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.6434</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.3141</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.003</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.1102</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.623</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.977</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5542</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.7815</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.9292</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.337</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.6417</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.1572</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.597</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4812.5319</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9113</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9116</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9113</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9113</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
